--- a/csv/ICT GRADE.xlsx
+++ b/csv/ICT GRADE.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ABE14E5-BED2-4A49-B2A5-209A405C119A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\client\Desktop\L KOLEHIYO\csv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>LRN_NUMBER</t>
   </si>
@@ -44,12 +48,15 @@
   <si>
     <t>France Packs</t>
   </si>
+  <si>
+    <t>FINAL_GRADE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,20 +407,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,9 +430,12 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>121097</v>
       </c>
@@ -434,6 +444,9 @@
       </c>
       <c r="E3">
         <v>87</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
